--- a/Documents/incomplete_BOM.xlsx
+++ b/Documents/incomplete_BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itron-my.sharepoint.com/personal/jmichael_itron_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b97be9f70c835ea/Documents/Projects/8x8x8_RGB_LED_CUBE/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{EFC44FDE-0B2F-4AC8-9D8B-233D19BA3D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE8C0E30-CB94-4880-A074-366563ABEA00}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{EFC44FDE-0B2F-4AC8-9D8B-233D19BA3D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3C54D72B-6BC3-4A76-B73E-C00C5A378FCA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C630127F-9951-4FE9-85A7-FE0AB9743695}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{C630127F-9951-4FE9-85A7-FE0AB9743695}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>DC Barrel Jack</t>
   </si>
@@ -84,13 +85,133 @@
   </si>
   <si>
     <t>IRF9540</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>20x4 I2c backpack</t>
+  </si>
+  <si>
+    <t>Banggood</t>
+  </si>
+  <si>
+    <t>Geekcreit® IIC I2C 2004 204 20 x 4 Character LCD Display Screen Module Blue Geekcreit for Arduino - products that work with official Arduino boards</t>
+  </si>
+  <si>
+    <t>cubeBasePCB</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>Motherboard</t>
+  </si>
+  <si>
+    <t>3d printed parts</t>
+  </si>
+  <si>
+    <t>prusament &amp; electricity</t>
+  </si>
+  <si>
+    <t>capatouch pcb</t>
+  </si>
+  <si>
+    <t>DFRobot</t>
+  </si>
+  <si>
+    <t>outrageous</t>
+  </si>
+  <si>
+    <t>MPR121 PCB Pair</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>25W 5V 5A</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>Diffused Common Anode</t>
+  </si>
+  <si>
+    <t>Chanzon 100 pcs 5mm RGB Multicolor Diffused LED Diode Lights Common Anode(Frosted Round Tricolor) 4 pin Bright Lighting Bulb Lamps Electronics Components Indicator Light Emitting Diodes</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6 ARM STM32 Small System Development Board Module SCM Core Board</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6 Microboard</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>STLinkV2</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Item Cost ($)</t>
+  </si>
+  <si>
+    <t>Tax ($)</t>
+  </si>
+  <si>
+    <t>Shipping ($)</t>
+  </si>
+  <si>
+    <t>ETA</t>
+  </si>
+  <si>
+    <t>DEC 17th 2020 to Jan 06 2021</t>
+  </si>
+  <si>
+    <t>TLC5940</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6</t>
+  </si>
+  <si>
+    <t>by Jan 8th?</t>
+  </si>
+  <si>
+    <t>LCDs</t>
+  </si>
+  <si>
+    <t>By Jan 15</t>
+  </si>
+  <si>
+    <t>MPR121 Breakout</t>
+  </si>
+  <si>
+    <t>By Feb 23!?</t>
+  </si>
+  <si>
+    <t>M4-0.7x20mm screw</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>M3-0.5x8mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +226,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,9 +261,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,21 +594,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FD9181-E70E-43C5-B426-44DE2A2A5860}">
-  <dimension ref="B2:P13"/>
+  <dimension ref="B2:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -477,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -494,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -511,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -525,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -539,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -548,6 +698,129 @@
       </c>
       <c r="P13" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>3.99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6.99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3">
+        <v>14.99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="5">
+        <v>51.54</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="19.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.29</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -563,19 +836,242 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B3B5FE-82B6-4DAD-B6B7-810B6D3C1981}">
+  <dimension ref="C3:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="17.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f>SUM(F5:H5)</f>
+        <v>33.69</v>
+      </c>
+      <c r="F5" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="G5">
+        <v>7.88</v>
+      </c>
+      <c r="H5">
+        <v>2.31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <f>SUM(F6:H6)</f>
+        <v>63.57</v>
+      </c>
+      <c r="F6">
+        <v>55.2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4.37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f>SUM(F7:H7)</f>
+        <v>28.99</v>
+      </c>
+      <c r="F7">
+        <v>14.5</v>
+      </c>
+      <c r="G7">
+        <v>12.5</v>
+      </c>
+      <c r="H7">
+        <v>1.99</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(F8:H8)</f>
+        <v>48.64</v>
+      </c>
+      <c r="F8">
+        <f>45-2.7</f>
+        <v>42.3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3.34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <f>SUM(F9:H9)</f>
+        <v>30.87</v>
+      </c>
+      <c r="F9">
+        <f>27.8-1.8</f>
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>2.75</v>
+      </c>
+      <c r="H9">
+        <v>2.12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <f>SUM(F10:H10)</f>
+        <v>15.02</v>
+      </c>
+      <c r="F10">
+        <v>13.99</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1.03</v>
+      </c>
+      <c r="J10" s="8">
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <f>SUM(F11:H11)</f>
+        <v>7.41</v>
+      </c>
+      <c r="F11">
+        <v>6.9</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.51</v>
+      </c>
+      <c r="J11" s="8">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E4:E16)</f>
+        <v>228.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -802,18 +1298,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A70C89-5C0A-4F67-8841-EC9C9F72756A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C9F8F4F-C5C0-4857-B329-55555316C788}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C9F8F4F-C5C0-4857-B329-55555316C788}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A70C89-5C0A-4F67-8841-EC9C9F72756A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
